--- a/Большая игра/roadmap Adario.xlsx
+++ b/Большая игра/roadmap Adario.xlsx
@@ -46,15 +46,6 @@
     <t>Tennis</t>
   </si>
   <si>
-    <t>01.06-07.06</t>
-  </si>
-  <si>
-    <t>08.06-15.06</t>
-  </si>
-  <si>
-    <t>15.06-22.06</t>
-  </si>
-  <si>
     <t>Поле канваса, игрок в виде кружка, который двигается по направлению движения мыши и кушает кружки</t>
   </si>
   <si>
@@ -106,6 +97,15 @@
     <t xml:space="preserve">Пофиксить баги (если они будут)
 Сделать ускорение игрока
 </t>
+  </si>
+  <si>
+    <t>23.06-07.07</t>
+  </si>
+  <si>
+    <t>08.07-22.07</t>
+  </si>
+  <si>
+    <t>23.07-06.08</t>
   </si>
 </sst>
 </file>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -636,13 +636,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -650,13 +650,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.2">
@@ -664,13 +664,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="293.25" x14ac:dyDescent="0.2">
@@ -692,13 +692,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="E8" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="12.75" x14ac:dyDescent="0.2"/>

--- a/Большая игра/roadmap Adario.xlsx
+++ b/Большая игра/roadmap Adario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Интерация</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Задачи</t>
-  </si>
-  <si>
-    <t>Tennis</t>
   </si>
   <si>
     <t>Поле канваса, игрок в виде кружка, который двигается по направлению движения мыши и кушает кружки</t>
@@ -67,52 +64,102 @@
 </t>
   </si>
   <si>
-    <t>Появляются враги, они генерируются случайно, едят друг друга и двигаются чтобы съесть игрока</t>
-  </si>
-  <si>
     <t xml:space="preserve">ИИ врага </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Усложнение движения игрока </t>
+  </si>
+  <si>
+    <t>Agario</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Появление одного врага в рандомном месте, он движется к игроку и есть все на пути</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Игра для пользователя усложнена появлением врага, теперь требуется не только съедать кружочки, но и убегать от противника </t>
   </si>
   <si>
     <t xml:space="preserve">Проработка ИИ врага
 Движение врага по направлению к игроку
-Рандомное появление врагов и регулировка их количества на поле
-Прописать взаимодействие кружков и врагов
-Увеличение площади игроков и врагов при каждом съедании
-Враг сьедает меньшего, игрок тоже
+Прописать взаимодействие кружков и врага
+Увеличение площади игроков и врага при каждом съедании
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Игра для пользователя усложнена появлением врагов, теперь требуется не только съедать кружочки, но и убегать от противника </t>
-  </si>
-  <si>
-    <t>Игрок движется с ускорением</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Усложнение движения игрока </t>
-  </si>
-  <si>
-    <t xml:space="preserve">При направлении мыши, игрок ускоряется </t>
+    <t>Добавление сетевых игроков</t>
+  </si>
+  <si>
+    <t>Сетевые пользователи</t>
+  </si>
+  <si>
+    <t>Играть с реальными пользователями</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Игрок движется с ускорением
+Появляются враги, они генерируются случайно, едят друг друга и двигаются чтобы съесть игрока
+С каждым таймингом появляется новый бот уровня
+Игра становится ограниченной по времени и появляется конец игры
+</t>
+  </si>
+  <si>
+    <t>При направлении мыши, игрок ускоряется
+Врагов стало больше
+Пользователь видит победителя</t>
   </si>
   <si>
     <t xml:space="preserve">Пофиксить баги (если они будут)
 Сделать ускорение игрока
+Рандомное появление врагов и регулировка их количества на поле
 </t>
   </si>
   <si>
-    <t>23.06-07.07</t>
-  </si>
-  <si>
-    <t>08.07-22.07</t>
-  </si>
-  <si>
-    <t>23.07-06.08</t>
+    <t>Бонусы</t>
+  </si>
+  <si>
+    <t>Добавление бонусов, деление надвое, сбрасывание хвоста, кружки-укрытия</t>
+  </si>
+  <si>
+    <t>Прятаться от врага в укрытиях, делиться на двое и сбрасывать хвост</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соединение с сервером
+Запоминание имени пользователя
+Вывод общей таблицы во время игры
+Прочесать код
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сделать раздвоение массы игрока
+Рандомно геренируются кружки-укрытия, сравнение площадей - если меньше - укрытие, если больше - игрока разрывает на мелкие круги
+Игрок может выделять кружки маленькой массы </t>
+  </si>
+  <si>
+    <t>26.06-30.06</t>
+  </si>
+  <si>
+    <t>01.07-08.07</t>
+  </si>
+  <si>
+    <t>09.07-16.07</t>
+  </si>
+  <si>
+    <t>17.07-24.07</t>
+  </si>
+  <si>
+    <t>25.07-01.08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -163,6 +210,13 @@
     <font>
       <b/>
       <sz val="24"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -252,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,9 +320,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -284,10 +335,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -589,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E17"/>
+  <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -603,21 +660,21 @@
     <col min="5" max="5" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:5" ht="30" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" ht="30" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -630,80 +687,116 @@
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+    </row>
+    <row r="7" spans="2:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="5" spans="2:5" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>18</v>
+    <row r="8" spans="2:7" ht="293.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="293.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="2:5" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:5" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:7" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="17" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
